--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Regex" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -8469,36 +8470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8534,6 +8505,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9202,12 +9203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -9268,20 +9269,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
@@ -9293,26 +9294,26 @@
       <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -9396,21 +9397,21 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -9419,12 +9420,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -9433,20 +9434,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -9455,28 +9456,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -9485,44 +9486,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
@@ -9531,20 +9532,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -9560,6 +9561,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9573,16 +9584,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Иструменты" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="Exceptions" sheetId="8" r:id="rId7"/>
     <sheet name="Concurrency" sheetId="9" r:id="rId8"/>
     <sheet name="Regex" sheetId="10" r:id="rId9"/>
+    <sheet name="Android" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="273">
   <si>
     <t>Структура пакетов</t>
   </si>
@@ -8066,6 +8066,24 @@
       </rPr>
       <t>).</t>
     </r>
+  </si>
+  <si>
+    <t>HandlerThread (Message)</t>
+  </si>
+  <si>
+    <t>Callback+Thread</t>
+  </si>
+  <si>
+    <t>AsyncTask</t>
+  </si>
+  <si>
+    <t>Intents (Broadcast Receivers)</t>
+  </si>
+  <si>
+    <t>IntentService</t>
+  </si>
+  <si>
+    <t>Асинхронность и организация многопоточности</t>
   </si>
 </sst>
 </file>
@@ -8470,6 +8488,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8505,36 +8553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8979,6 +8997,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
@@ -9189,7 +9255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -9203,12 +9269,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -9269,20 +9335,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
@@ -9294,26 +9360,26 @@
       <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -9397,21 +9463,21 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -9420,12 +9486,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -9434,20 +9500,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -9456,28 +9522,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -9486,44 +9552,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
@@ -9532,20 +9598,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -9561,16 +9627,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9584,6 +9640,16 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Иструменты" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Да </t>
   </si>
   <si>
-    <t>Только contants</t>
-  </si>
-  <si>
     <t>Это выражение</t>
   </si>
   <si>
@@ -8065,6 +8062,9 @@
       </rPr>
       <t>).</t>
     </r>
+  </si>
+  <si>
+    <t>Только constants</t>
   </si>
 </sst>
 </file>
@@ -8469,36 +8469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8534,6 +8504,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8866,20 +8866,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -8891,33 +8891,33 @@
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,22 +8932,22 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -8982,7 +8982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9009,7 +9011,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9058,11 +9060,11 @@
         <v>18</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9073,13 +9075,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -9089,7 +9091,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -9098,7 +9100,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8"/>
       <c r="H7" s="9"/>
@@ -9109,29 +9111,29 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -9149,7 +9151,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -9158,7 +9160,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -9188,7 +9190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -9202,43 +9204,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -9248,169 +9250,169 @@
         <v>13</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="A7" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="65"/>
+      <c r="A11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="65"/>
+      <c r="A12" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73" t="s">
+      <c r="A14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="E19" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -9419,12 +9421,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -9433,20 +9435,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -9455,28 +9457,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="A28" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -9485,44 +9487,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="A36" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
@@ -9531,20 +9533,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="A38" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
+      <c r="A39" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -9560,6 +9562,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9573,16 +9585,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9604,7 +9606,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9612,47 +9614,47 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -9660,37 +9662,37 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -9714,185 +9716,185 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -9940,111 +9942,111 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10067,102 +10069,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -10170,37 +10172,37 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -10224,182 +10226,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -10423,147 +10425,147 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
   <si>
     <t>Структура пакетов</t>
   </si>
@@ -8084,13 +8084,61 @@
   </si>
   <si>
     <t>Асинхронность и организация многопоточности</t>
+  </si>
+  <si>
+    <t>Работа с SQLite</t>
+  </si>
+  <si>
+    <t>1 helper class = you don't need to synchronize and you can use the helper from multiple readers/writers because helper class manages synchronization itself</t>
+  </si>
+  <si>
+    <t>SqliteOpenHelper object holds on to one database connection</t>
+  </si>
+  <si>
+    <t>NOT be doing db accesses from the UI thread</t>
+  </si>
+  <si>
+    <t>Call the read-only, and you'll get the write database connection regardless.</t>
+  </si>
+  <si>
+    <t>So, one helper instance, one db connection.</t>
+  </si>
+  <si>
+    <t> The SqliteDatabase object uses java locks to keep access serialized.</t>
+  </si>
+  <si>
+    <t>So, multiple threads? Use one helper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite implements a exclusive write lock, shared read lock model. This means that you can have concurrent readers active in the database at the same time or a single writer, you can't have both. If you use the WAL logging feature you can have a single writer and multiple readers active in the database at the same time, but you still can't have more than one writer. </t>
+  </si>
+  <si>
+    <t>If you try to write to the database from actual distinct connections at the same time, one will fail. Worse, if you don’t call the right version of insert/update on the SQLiteDatabase, you won’t get an exception. You’ll just get a message in your LogCat, and that will be it. Period.</t>
+  </si>
+  <si>
+    <t>Use a singleton helper for opening connections. 1) Open as many readable connections as you want, and close then after your are done with it. 2) For writable connections, you should open only a single writable connection.</t>
+  </si>
+  <si>
+    <t>If you are going to perform more than one update of any kind, wrap it in a transaction.  It seems like the 50 updates I do in the transaction (this was in the original app version, not the new one) take the same amount of time as the 1 update outside of the transaction.</t>
+  </si>
+  <si>
+    <t>sqlite database should be opened only once. Close it in onDestroy()</t>
+  </si>
+  <si>
+    <t>https://enterra.ru/blog/android_issues_with_sqlite/</t>
+  </si>
+  <si>
+    <t>https://touchlabblog.tumblr.com/post/24474398246/android-sqlite-locking</t>
+  </si>
+  <si>
+    <t>https://touchlabblog.tumblr.com/post/24474750219/single-sqlite-connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8210,8 +8258,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8257,6 +8314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8362,10 +8425,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -8471,6 +8535,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8554,8 +8621,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8879,7 +8952,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8887,21 +8960,21 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8909,11 +8982,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8928,11 +9001,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8999,19 +9072,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="77" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9040,8 +9113,94 @@
         <v>271</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1"/>
+    <hyperlink ref="A26" r:id="rId2"/>
+    <hyperlink ref="A27" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9124,10 +9283,10 @@
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
@@ -9186,14 +9345,14 @@
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9215,22 +9374,22 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -9269,12 +9428,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -9335,51 +9494,51 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -9463,21 +9622,21 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -9486,12 +9645,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -9500,20 +9659,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -9522,28 +9681,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -9552,44 +9711,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
@@ -9598,20 +9757,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="290">
   <si>
     <t>Структура пакетов</t>
   </si>
@@ -8132,6 +8132,9 @@
   </si>
   <si>
     <t>https://touchlabblog.tumblr.com/post/24474750219/single-sqlite-connection</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2493331/what-are-the-best-practices-for-sqlite-on-android#comment80343236_2493331</t>
   </si>
 </sst>
 </file>
@@ -8537,6 +8540,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8554,36 +8562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8621,9 +8599,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8952,7 +8955,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8960,21 +8963,21 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8982,11 +8985,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9001,11 +9004,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9072,10 +9075,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,7 +9087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="49" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9114,7 +9117,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9179,28 +9182,34 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="50" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1"/>
-    <hyperlink ref="A26" r:id="rId2"/>
-    <hyperlink ref="A27" r:id="rId3"/>
+    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
+    <hyperlink ref="A25" r:id="rId3"/>
+    <hyperlink ref="A26" r:id="rId4" location="comment80343236_2493331"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9283,10 +9292,10 @@
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
@@ -9345,14 +9354,14 @@
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9374,22 +9383,22 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -9428,12 +9437,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -9494,51 +9503,51 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -9622,21 +9631,21 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -9645,12 +9654,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -9659,20 +9668,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -9681,28 +9690,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -9711,44 +9720,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
@@ -9757,20 +9766,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
@@ -9786,6 +9795,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9799,16 +9818,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -7988,6 +7988,129 @@
   </si>
   <si>
     <r>
+      <t>instanceMethod of InterfaceName, но по сути поиск instanceMethod of SubclassName, и вверх по иерархии наследования (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>после спуска в самый низ к SubclassName, ищет снизу-вверх по иерархии наследования, пока не найдёт</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Это полиморфизм в действии - вызов виртуального метода. НО, instanceMethod должен присутствовать в InterfaceName.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В общем, поля в суперклассе и субклассе ведут себя независимо (это всё актуально для случаев с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>HandlerThread (Message)</t>
+  </si>
+  <si>
+    <t>Callback+Thread</t>
+  </si>
+  <si>
+    <t>AsyncTask</t>
+  </si>
+  <si>
+    <t>Intents (Broadcast Receivers)</t>
+  </si>
+  <si>
+    <t>IntentService</t>
+  </si>
+  <si>
+    <t>Асинхронность и организация многопоточности</t>
+  </si>
+  <si>
+    <t>Работа с SQLite</t>
+  </si>
+  <si>
+    <t>1 helper class = you don't need to synchronize and you can use the helper from multiple readers/writers because helper class manages synchronization itself</t>
+  </si>
+  <si>
+    <t>SqliteOpenHelper object holds on to one database connection</t>
+  </si>
+  <si>
+    <t>NOT be doing db accesses from the UI thread</t>
+  </si>
+  <si>
+    <t>Call the read-only, and you'll get the write database connection regardless.</t>
+  </si>
+  <si>
+    <t>So, one helper instance, one db connection.</t>
+  </si>
+  <si>
+    <t> The SqliteDatabase object uses java locks to keep access serialized.</t>
+  </si>
+  <si>
+    <t>So, multiple threads? Use one helper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite implements a exclusive write lock, shared read lock model. This means that you can have concurrent readers active in the database at the same time or a single writer, you can't have both. If you use the WAL logging feature you can have a single writer and multiple readers active in the database at the same time, but you still can't have more than one writer. </t>
+  </si>
+  <si>
+    <t>If you try to write to the database from actual distinct connections at the same time, one will fail. Worse, if you don’t call the right version of insert/update on the SQLiteDatabase, you won’t get an exception. You’ll just get a message in your LogCat, and that will be it. Period.</t>
+  </si>
+  <si>
+    <t>Use a singleton helper for opening connections. 1) Open as many readable connections as you want, and close then after your are done with it. 2) For writable connections, you should open only a single writable connection.</t>
+  </si>
+  <si>
+    <t>If you are going to perform more than one update of any kind, wrap it in a transaction.  It seems like the 50 updates I do in the transaction (this was in the original app version, not the new one) take the same amount of time as the 1 update outside of the transaction.</t>
+  </si>
+  <si>
+    <t>sqlite database should be opened only once. Close it in onDestroy()</t>
+  </si>
+  <si>
+    <t>https://enterra.ru/blog/android_issues_with_sqlite/</t>
+  </si>
+  <si>
+    <t>https://touchlabblog.tumblr.com/post/24474398246/android-sqlite-locking</t>
+  </si>
+  <si>
+    <t>https://touchlabblog.tumblr.com/post/24474750219/single-sqlite-connection</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2493331/what-are-the-best-practices-for-sqlite-on-android#comment80343236_2493331</t>
+  </si>
+  <si>
+    <r>
       <t>instanceMethod of ClassName, но по сути поиск instanceMethod of SubclassName , и вверх по иерархии наследования (</t>
     </r>
     <r>
@@ -8010,131 +8133,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>). Это полиморфизм в действии - вызов виртуального метода.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>instanceMethod of InterfaceName, но по сути поиск instanceMethod of SubclassName, и вверх по иерархии наследования (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>после спуска в самый низ к SubclassName, ищет снизу-вверх по иерархии наследования, пока не найдёт</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Это полиморфизм в действии - вызов виртуального метода. НО, instanceMethod должен присутствовать в InterfaceName.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В общем, поля в суперклассе и субклассе ведут себя независимо (это всё актуально для случаев с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <t>HandlerThread (Message)</t>
-  </si>
-  <si>
-    <t>Callback+Thread</t>
-  </si>
-  <si>
-    <t>AsyncTask</t>
-  </si>
-  <si>
-    <t>Intents (Broadcast Receivers)</t>
-  </si>
-  <si>
-    <t>IntentService</t>
-  </si>
-  <si>
-    <t>Асинхронность и организация многопоточности</t>
-  </si>
-  <si>
-    <t>Работа с SQLite</t>
-  </si>
-  <si>
-    <t>1 helper class = you don't need to synchronize and you can use the helper from multiple readers/writers because helper class manages synchronization itself</t>
-  </si>
-  <si>
-    <t>SqliteOpenHelper object holds on to one database connection</t>
-  </si>
-  <si>
-    <t>NOT be doing db accesses from the UI thread</t>
-  </si>
-  <si>
-    <t>Call the read-only, and you'll get the write database connection regardless.</t>
-  </si>
-  <si>
-    <t>So, one helper instance, one db connection.</t>
-  </si>
-  <si>
-    <t> The SqliteDatabase object uses java locks to keep access serialized.</t>
-  </si>
-  <si>
-    <t>So, multiple threads? Use one helper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLite implements a exclusive write lock, shared read lock model. This means that you can have concurrent readers active in the database at the same time or a single writer, you can't have both. If you use the WAL logging feature you can have a single writer and multiple readers active in the database at the same time, but you still can't have more than one writer. </t>
-  </si>
-  <si>
-    <t>If you try to write to the database from actual distinct connections at the same time, one will fail. Worse, if you don’t call the right version of insert/update on the SQLiteDatabase, you won’t get an exception. You’ll just get a message in your LogCat, and that will be it. Period.</t>
-  </si>
-  <si>
-    <t>Use a singleton helper for opening connections. 1) Open as many readable connections as you want, and close then after your are done with it. 2) For writable connections, you should open only a single writable connection.</t>
-  </si>
-  <si>
-    <t>If you are going to perform more than one update of any kind, wrap it in a transaction.  It seems like the 50 updates I do in the transaction (this was in the original app version, not the new one) take the same amount of time as the 1 update outside of the transaction.</t>
-  </si>
-  <si>
-    <t>sqlite database should be opened only once. Close it in onDestroy()</t>
-  </si>
-  <si>
-    <t>https://enterra.ru/blog/android_issues_with_sqlite/</t>
-  </si>
-  <si>
-    <t>https://touchlabblog.tumblr.com/post/24474398246/android-sqlite-locking</t>
-  </si>
-  <si>
-    <t>https://touchlabblog.tumblr.com/post/24474750219/single-sqlite-connection</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/2493331/what-are-the-best-practices-for-sqlite-on-android#comment80343236_2493331</t>
+      <t>). Это полиморфизм в действии - вызов виртуального метода. НО, instanceMethod должен присутствовать в ClassName.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8939,7 +8939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9077,7 +9077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -9088,117 +9088,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -9423,8 +9423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9611,13 +9611,13 @@
         <v>54</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>76</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -10291,7 +10291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -10448,7 +10448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -10647,7 +10647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="7932" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Иструменты" sheetId="1" r:id="rId1"/>
@@ -8041,9 +8041,6 @@
     </r>
   </si>
   <si>
-    <t>HandlerThread (Message)</t>
-  </si>
-  <si>
     <t>Callback+Thread</t>
   </si>
   <si>
@@ -8135,6 +8132,9 @@
       </rPr>
       <t>). Это полиморфизм в действии - вызов виртуального метода. НО, instanceMethod должен присутствовать в ClassName.</t>
     </r>
+  </si>
+  <si>
+    <t>Handler (Runnable or Message)</t>
   </si>
 </sst>
 </file>
@@ -8563,6 +8563,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8598,36 +8628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8943,15 +8943,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="126" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8959,103 +8959,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="52"/>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>188</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -9078,127 +9078,127 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="150.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -9219,17 +9219,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>8</v>
@@ -9247,7 +9247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9327,7 +9327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -9338,7 +9338,7 @@
       <c r="F7" s="8"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -9350,7 +9350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="E9" s="57"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>27</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9427,24 +9427,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="18" t="s">
         <v>41</v>
@@ -9502,54 +9502,54 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+    </row>
+    <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="56"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="59"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="B11" s="69"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="59"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="B12" s="69"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="67"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>50</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>54</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>76</v>
@@ -9625,169 +9625,169 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="E19" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-    </row>
-    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="34"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -9795,16 +9795,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9818,6 +9808,16 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9832,98 +9832,98 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168.7109375" customWidth="1"/>
+    <col min="1" max="1" width="168.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>135</v>
       </c>
@@ -9942,67 +9942,67 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="186.140625" customWidth="1"/>
+    <col min="1" max="1" width="186.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -10010,127 +10010,127 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
     </row>
   </sheetData>
@@ -10167,83 +10167,83 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="146.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="146.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -10267,17 +10267,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -10295,145 +10295,145 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="176.7109375" customWidth="1"/>
+    <col min="1" max="1" width="176.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -10452,187 +10452,187 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="187.28515625" customWidth="1"/>
+    <col min="1" max="1" width="187.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -10651,152 +10651,152 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.5703125" customWidth="1"/>
+    <col min="1" max="1" width="175.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>252</v>
       </c>

--- a/Java hint.xlsx
+++ b/Java hint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="7932" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="20112" windowHeight="7932" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Иструменты" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,13 @@
     <sheet name="Exceptions" sheetId="8" r:id="rId7"/>
     <sheet name="Concurrency" sheetId="9" r:id="rId8"/>
     <sheet name="Regex" sheetId="10" r:id="rId9"/>
-    <sheet name="Android" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="267">
   <si>
     <t>Структура пакетов</t>
   </si>
@@ -8041,72 +8040,6 @@
     </r>
   </si>
   <si>
-    <t>Callback+Thread</t>
-  </si>
-  <si>
-    <t>AsyncTask</t>
-  </si>
-  <si>
-    <t>Intents (Broadcast Receivers)</t>
-  </si>
-  <si>
-    <t>IntentService</t>
-  </si>
-  <si>
-    <t>Асинхронность и организация многопоточности</t>
-  </si>
-  <si>
-    <t>Работа с SQLite</t>
-  </si>
-  <si>
-    <t>1 helper class = you don't need to synchronize and you can use the helper from multiple readers/writers because helper class manages synchronization itself</t>
-  </si>
-  <si>
-    <t>SqliteOpenHelper object holds on to one database connection</t>
-  </si>
-  <si>
-    <t>NOT be doing db accesses from the UI thread</t>
-  </si>
-  <si>
-    <t>Call the read-only, and you'll get the write database connection regardless.</t>
-  </si>
-  <si>
-    <t>So, one helper instance, one db connection.</t>
-  </si>
-  <si>
-    <t> The SqliteDatabase object uses java locks to keep access serialized.</t>
-  </si>
-  <si>
-    <t>So, multiple threads? Use one helper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLite implements a exclusive write lock, shared read lock model. This means that you can have concurrent readers active in the database at the same time or a single writer, you can't have both. If you use the WAL logging feature you can have a single writer and multiple readers active in the database at the same time, but you still can't have more than one writer. </t>
-  </si>
-  <si>
-    <t>If you try to write to the database from actual distinct connections at the same time, one will fail. Worse, if you don’t call the right version of insert/update on the SQLiteDatabase, you won’t get an exception. You’ll just get a message in your LogCat, and that will be it. Period.</t>
-  </si>
-  <si>
-    <t>Use a singleton helper for opening connections. 1) Open as many readable connections as you want, and close then after your are done with it. 2) For writable connections, you should open only a single writable connection.</t>
-  </si>
-  <si>
-    <t>If you are going to perform more than one update of any kind, wrap it in a transaction.  It seems like the 50 updates I do in the transaction (this was in the original app version, not the new one) take the same amount of time as the 1 update outside of the transaction.</t>
-  </si>
-  <si>
-    <t>sqlite database should be opened only once. Close it in onDestroy()</t>
-  </si>
-  <si>
-    <t>https://enterra.ru/blog/android_issues_with_sqlite/</t>
-  </si>
-  <si>
-    <t>https://touchlabblog.tumblr.com/post/24474398246/android-sqlite-locking</t>
-  </si>
-  <si>
-    <t>https://touchlabblog.tumblr.com/post/24474750219/single-sqlite-connection</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/2493331/what-are-the-best-practices-for-sqlite-on-android#comment80343236_2493331</t>
-  </si>
-  <si>
     <r>
       <t>instanceMethod of ClassName, но по сути поиск instanceMethod of SubclassName , и вверх по иерархии наследования (</t>
     </r>
@@ -8132,16 +8065,13 @@
       </rPr>
       <t>). Это полиморфизм в действии - вызов виртуального метода. НО, instanceMethod должен присутствовать в ClassName.</t>
     </r>
-  </si>
-  <si>
-    <t>Handler (Runnable or Message)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8261,17 +8191,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8317,12 +8238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7171"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8428,11 +8343,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -8538,14 +8452,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8562,36 +8468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8629,9 +8505,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8955,7 +8860,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8963,21 +8868,21 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8985,11 +8890,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9004,11 +8909,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9070,146 +8975,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="150.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
-    <hyperlink ref="A28" r:id="rId2"/>
-    <hyperlink ref="A25" r:id="rId3"/>
-    <hyperlink ref="A26" r:id="rId4" location="comment80343236_2493331"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9292,10 +9057,10 @@
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
@@ -9354,14 +9119,14 @@
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9383,22 +9148,22 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -9423,7 +9188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9437,12 +9202,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -9503,51 +9268,51 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -9617,7 +9382,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>76</v>
@@ -9631,21 +9396,21 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
@@ -9654,12 +9419,12 @@
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -9668,20 +9433,20 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
@@ -9690,28 +9455,28 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
@@ -9720,44 +9485,44 @@
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
@@ -9766,20 +9531,20 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
@@ -9795,6 +9560,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9808,16 +9583,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9938,8 +9703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10163,8 +9928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10291,9 +10056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10647,7 +10410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
